--- a/HelaMedical/File/PolizavisDataBase.xlsx
+++ b/HelaMedical/File/PolizavisDataBase.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HelaMedical\HelaMedical\File\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
   <si>
     <t>Id</t>
   </si>
@@ -195,9 +200,6 @@
   </si>
   <si>
     <t>возраст на момент регистрации</t>
-  </si>
-  <si>
-    <t>СВЕТЛОГОРСК</t>
   </si>
   <si>
     <t>Клеткин Андрей Викторович</t>
@@ -467,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,18 +488,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -512,13 +508,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +785,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -800,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH7"/>
+  <dimension ref="A1:BH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,172 +981,259 @@
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>7</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2">
+        <v>1990</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE2">
+        <v>18</v>
+      </c>
+      <c r="BF2">
+        <v>2014</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
       <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
       <c r="M3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
         <v>70</v>
       </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>72</v>
-      </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" t="s">
-        <v>76</v>
-      </c>
-      <c r="V3" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" t="s">
         <v>78</v>
       </c>
-      <c r="X3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>7</v>
-      </c>
       <c r="AB3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AD3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AH3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AR3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS3" t="s">
         <v>89</v>
       </c>
-      <c r="AS3" t="s">
-        <v>90</v>
-      </c>
       <c r="AU3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AV3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX3" t="s">
         <v>93</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3">
+        <v>1992</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>94</v>
       </c>
-      <c r="AY3">
-        <v>1990</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>95</v>
-      </c>
       <c r="BA3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BD3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="BE3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BF3">
         <v>2014</v>
       </c>
       <c r="BG3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
@@ -1161,109 +1241,127 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="AG4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN4" t="s">
         <v>103</v>
       </c>
-      <c r="T4" t="s">
-        <v>104</v>
-      </c>
-      <c r="X4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>107</v>
-      </c>
       <c r="AR4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="AS4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU4" t="s">
         <v>90</v>
       </c>
-      <c r="AU4" t="s">
-        <v>109</v>
-      </c>
       <c r="AV4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="AW4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AX4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY4">
+        <v>1990</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>94</v>
       </c>
-      <c r="AY4">
-        <v>1992</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>95</v>
-      </c>
       <c r="BA4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BD4" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="BE4">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="BF4">
         <v>2014</v>
       </c>
       <c r="BG4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
@@ -1271,271 +1369,118 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="S5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" t="s">
         <v>74</v>
       </c>
-      <c r="T5" t="s">
-        <v>75</v>
+      <c r="U5" t="s">
+        <v>139</v>
+      </c>
+      <c r="V5" t="s">
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5">
-        <v>3</v>
-      </c>
-      <c r="AA5">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="AD5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG5" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AH5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AJ5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="AR5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU5" t="s">
         <v>90</v>
       </c>
-      <c r="AU5" t="s">
-        <v>91</v>
-      </c>
       <c r="AV5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AW5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="AX5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY5">
+        <v>1988</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>94</v>
       </c>
-      <c r="AY5">
-        <v>1990</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>95</v>
-      </c>
       <c r="BA5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BD5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="BE5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="BF5">
         <v>2014</v>
       </c>
       <c r="BG5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M6" t="s">
-        <v>138</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" t="s">
-        <v>140</v>
-      </c>
-      <c r="V6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY6">
-        <v>1988</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE6">
-        <v>16</v>
-      </c>
-      <c r="BF6">
-        <v>2014</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A7:S7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
